--- a/참고자료/문제은행_테이블명세(2019-11-05).xlsx
+++ b/참고자료/문제은행_테이블명세(2019-11-05).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="390" windowWidth="27795" windowHeight="12210"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1/1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -111,10 +107,6 @@
   </si>
   <si>
     <t>PK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(100)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -175,10 +167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR2(100)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>문제코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,6 +184,22 @@
   </si>
   <si>
     <t>정보처리기사 필기 문제은행을 위해 활용할 테이블 생성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(1000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(1000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ_CBT로 시퀀스 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반정민</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -537,32 +541,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,7 +872,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:G12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -882,7 +886,7 @@
     <col min="7" max="8" width="6.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -890,99 +894,99 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="22" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="3">
         <v>43774</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="23"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -990,45 +994,47 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1040,16 +1046,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="5"/>
@@ -1063,16 +1069,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="5"/>
@@ -1086,16 +1092,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="5"/>
@@ -1109,16 +1115,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="5"/>
@@ -1132,16 +1138,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="5"/>
@@ -1155,16 +1161,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="5"/>
